--- a/mock test.xlsx
+++ b/mock test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="460" windowWidth="18400" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="9720" yWindow="780" windowWidth="18400" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="244">
   <si>
     <t>inflection</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,6 +676,339 @@
   </si>
   <si>
     <t>to change or stop the effect of (something)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to make (something) somewhat or slightly wet </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to make (something) less strong or active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disconsolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>very sad;unconsolable, incapable of being consoled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chirpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheerful and lively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scotch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ended; to stop (something) from continuing by doing or saying something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perquisite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive right or benefit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conflagration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a frenzied and uncontrolled fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windfall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an unexpected amount of money that you get as a gift</t>
+  </si>
+  <si>
+    <t>hedonistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nefarious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feckless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nugatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exacting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devoted to the pursuit of pleasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evil or immoral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weak, ineffective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效的; 琐碎的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiring much time, attention, or effort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> very dirty and unpleasant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sullen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忧郁的</t>
+    <rPh sb="0" eb="1">
+      <t>you'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to damage or ruin the good quality of (something)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to stop (something) from continuing by doing or saying something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to prevent (someone) from doing something or achieving a goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to prevent (something) from happening or being successful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶臭的，有毒的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vernacular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>argot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>very informal vocabulary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the plain,native speech of a place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a specialized set of vocabulary used by a group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrepid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fearlessly bold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trepid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>austere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>having a lot of space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple or plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of a person : having a serious and unfriendly quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>somniferous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analeptic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soporific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a drug that stimulates the central nervous system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obviate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreshadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to prevent or avoid (something)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to praise (someone or something) highly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predicted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>influence or imitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cause or accomplish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>very surprising, shocking, or frightening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a sign or warning that something usually bad or unpleasant is going to happen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something that can be used as a way to judge the quality or level of other, similar things</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organically</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benevolent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naturally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind and generous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to act in a way that is meant to trick or deceive people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">not real </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loquacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wayward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excessively talkative or wordy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exiguous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inadequate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>following one's own capricious, or depraved inclinations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -998,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A74" zoomScale="157" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A120" zoomScale="157" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1668,6 +2001,351 @@
         <v>161</v>
       </c>
     </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>199</v>
+      </c>
+      <c r="B112" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>211</v>
+      </c>
+      <c r="B118" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>212</v>
+      </c>
+      <c r="B119" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>215</v>
+      </c>
+      <c r="B120" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>216</v>
+      </c>
+      <c r="B121" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>217</v>
+      </c>
+      <c r="B122" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>218</v>
+      </c>
+      <c r="B123" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>220</v>
+      </c>
+      <c r="B124" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>225</v>
+      </c>
+      <c r="B125" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>227</v>
+      </c>
+      <c r="B126" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>228</v>
+      </c>
+      <c r="B127" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>231</v>
+      </c>
+      <c r="B128" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>232</v>
+      </c>
+      <c r="B129" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>233</v>
+      </c>
+      <c r="B130" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>238</v>
+      </c>
+      <c r="B132" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>241</v>
+      </c>
+      <c r="B133" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>239</v>
+      </c>
+      <c r="B134" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mock test.xlsx
+++ b/mock test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="780" windowWidth="18400" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="14160" yWindow="460" windowWidth="18400" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="298">
   <si>
     <t>inflection</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1008,6 +1008,220 @@
   </si>
   <si>
     <t>following one's own capricious, or depraved inclinations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chasten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> to cause (someone) to feel sad or embarrassed about something that has happened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to have great respect for (someone or something)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to dislike (something or someone) very much</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expurgate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>censor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neologism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a new word or expression or a new meaning of a word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indispensable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extremely important and necessary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inaudible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>articulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impossible to hear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>able to express ideas clearly and effectively in speech or writing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearly expressed and easily understood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exculpate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dandle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borne(bear)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to prove that someone is not guilty of doing something wrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to formally give up (something)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to say in a formal or definite way that you refuse to follow, obey, or support (someone or something) any longer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to dislike (someone or something) very much</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abhor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impunity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freedom from punishment, harm, or loss</t>
+  </si>
+  <si>
+    <t>lax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not careful enough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyperbole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pervert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulverous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exaggerated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relating to sex in a way that is excessive or offensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. to cause (a person or a person's mind) to become immoral or not normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. to change (something good) so that it is no longer what it was or should be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. a person whose sexual behavior is considered not normal or acceptable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉状的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spurious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not genuine, sincere, or authentic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>based on false ideas or bad reasoning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a statement, description, etc., that is not strictly true or accurate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>very obvious or noticeable</t>
+  </si>
+  <si>
+    <t>inculpate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exonerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to impute(attribute) guilt to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to prove that someone is not guilty of a crime or responsible for a problem, bad situation, etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swiftness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alacrity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1331,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B166"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A120" zoomScale="157" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A150" zoomScale="157" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2346,6 +2560,236 @@
         <v>243</v>
       </c>
     </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>246</v>
+      </c>
+      <c r="B136" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>244</v>
+      </c>
+      <c r="B137" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>245</v>
+      </c>
+      <c r="B138" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>250</v>
+      </c>
+      <c r="B139" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>252</v>
+      </c>
+      <c r="B140" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>254</v>
+      </c>
+      <c r="B141" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>256</v>
+      </c>
+      <c r="B142" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>257</v>
+      </c>
+      <c r="B143" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>261</v>
+      </c>
+      <c r="B146" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>262</v>
+      </c>
+      <c r="B147" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>266</v>
+      </c>
+      <c r="B148" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>270</v>
+      </c>
+      <c r="B150" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>271</v>
+      </c>
+      <c r="B151" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>273</v>
+      </c>
+      <c r="B152" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>275</v>
+      </c>
+      <c r="B153" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>276</v>
+      </c>
+      <c r="B154" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>277</v>
+      </c>
+      <c r="B155" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>278</v>
+      </c>
+      <c r="B158" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>285</v>
+      </c>
+      <c r="B159" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>286</v>
+      </c>
+      <c r="B160" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>290</v>
+      </c>
+      <c r="B162" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>261</v>
+      </c>
+      <c r="B163" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>292</v>
+      </c>
+      <c r="B164" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>293</v>
+      </c>
+      <c r="B165" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>296</v>
+      </c>
+      <c r="B166" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
